--- a/data/trans_orig/P5708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5708-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>481673</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>450419</v>
+        <v>449397</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>513402</v>
+        <v>515983</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4668624803765219</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4365695745443127</v>
+        <v>0.4355792797748</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4976160788134205</v>
+        <v>0.5001174922365279</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>598</v>
@@ -765,19 +765,19 @@
         <v>602738</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>566829</v>
+        <v>565498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>639560</v>
+        <v>637599</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4583164446152166</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4310119142855248</v>
+        <v>0.4299997137948494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4863158200670364</v>
+        <v>0.4848243540601188</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1089</v>
@@ -786,19 +786,19 @@
         <v>1084410</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1036764</v>
+        <v>1038127</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1135271</v>
+        <v>1129941</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4620734784556221</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4417713598054509</v>
+        <v>0.4423520979486315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4837454913130587</v>
+        <v>0.481474419435405</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>297976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272059</v>
+        <v>270644</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>327772</v>
+        <v>328335</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2888143734638897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2636937133268466</v>
+        <v>0.2623221019587425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3176938327488621</v>
+        <v>0.3182397148610386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>338</v>
@@ -836,19 +836,19 @@
         <v>344201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>313777</v>
+        <v>316046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>374121</v>
+        <v>378563</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2617272797076418</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2385931624566738</v>
+        <v>0.2403187427664517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2844785197048793</v>
+        <v>0.2878557208615695</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>633</v>
@@ -857,19 +857,19 @@
         <v>642177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>600212</v>
+        <v>600544</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>685795</v>
+        <v>682388</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2736353890021569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2557538337679285</v>
+        <v>0.255895465875539</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.292221275523529</v>
+        <v>0.2907696485227769</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>187279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>164085</v>
+        <v>163781</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>213736</v>
+        <v>215415</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1815203499871585</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1590400256939871</v>
+        <v>0.1587455857081581</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2071640636592358</v>
+        <v>0.2087910988771479</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>263</v>
@@ -907,19 +907,19 @@
         <v>273663</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>248593</v>
+        <v>244804</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>307165</v>
+        <v>303200</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2080905320868859</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1890281168183902</v>
+        <v>0.1861466193592831</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2335656904973863</v>
+        <v>0.2305504640173709</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>451</v>
@@ -928,19 +928,19 @@
         <v>460941</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>419321</v>
+        <v>424139</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>498010</v>
+        <v>501199</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.196409669043181</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1786751911719892</v>
+        <v>0.1807279369010136</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.212204900802045</v>
+        <v>0.2135637663159743</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>55659</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43068</v>
+        <v>41492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74283</v>
+        <v>70177</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05394744201117904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04174375372248338</v>
+        <v>0.0402159031199265</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07199911302339937</v>
+        <v>0.06801952205440379</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -978,19 +978,19 @@
         <v>80706</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64425</v>
+        <v>62954</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100618</v>
+        <v>98710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06136787085074946</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04898794681140708</v>
+        <v>0.04786956313544451</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07650875127508995</v>
+        <v>0.07505837674340246</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -999,19 +999,19 @@
         <v>136364</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113880</v>
+        <v>115716</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159627</v>
+        <v>159949</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05810567969694969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04852493109213638</v>
+        <v>0.04930713593819627</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06801795701367226</v>
+        <v>0.06815522724050334</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>9136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4538</v>
+        <v>4490</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17482</v>
+        <v>17142</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008855354161250925</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004397983809130202</v>
+        <v>0.004352315620264342</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01694494316220529</v>
+        <v>0.01661500191816723</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1049,19 +1049,19 @@
         <v>13806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7927</v>
+        <v>7675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22716</v>
+        <v>23823</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01049787273950628</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006027672877417895</v>
+        <v>0.005836115972632711</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01727284590936399</v>
+        <v>0.01811494958766581</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -1070,19 +1070,19 @@
         <v>22942</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15368</v>
+        <v>14268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33602</v>
+        <v>33852</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009775783802090286</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006548409974910548</v>
+        <v>0.006079832404000299</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01431821718718296</v>
+        <v>0.01442448202185411</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>979659</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>936228</v>
+        <v>937936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1018921</v>
+        <v>1017617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5785116392007742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5528646464153955</v>
+        <v>0.55387297891499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6016968166727616</v>
+        <v>0.6009268023826928</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>925</v>
@@ -1195,19 +1195,19 @@
         <v>939773</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>900763</v>
+        <v>899112</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>980338</v>
+        <v>979734</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5922843492574583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5676986257788154</v>
+        <v>0.5666575704715729</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.617849594274002</v>
+        <v>0.6174689979261356</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1859</v>
@@ -1216,19 +1216,19 @@
         <v>1919433</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1859662</v>
+        <v>1852629</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1978923</v>
+        <v>1969034</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.585173943912302</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5669516832874731</v>
+        <v>0.5648078118214261</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6033105652658077</v>
+        <v>0.6002959914210834</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>462867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>428868</v>
+        <v>429810</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>500449</v>
+        <v>498929</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.273333911950209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2532565888171377</v>
+        <v>0.2538128655413245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2955266865537419</v>
+        <v>0.29462934135704</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>399</v>
@@ -1266,19 +1266,19 @@
         <v>400885</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>366029</v>
+        <v>366691</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>437102</v>
+        <v>438804</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2526542319706144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2306870255186599</v>
+        <v>0.2311039379052351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2754797168616476</v>
+        <v>0.2765527435559902</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>863</v>
@@ -1287,19 +1287,19 @@
         <v>863752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>815263</v>
+        <v>816427</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>913789</v>
+        <v>917481</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2633304827925554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2485476713334291</v>
+        <v>0.2489025729750386</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2785852061248879</v>
+        <v>0.2797107479232027</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>215817</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>192531</v>
+        <v>188042</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>243578</v>
+        <v>242412</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1274448773331431</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1136938766665684</v>
+        <v>0.1110430285968195</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1438387773982716</v>
+        <v>0.1431501131651131</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>190</v>
@@ -1337,19 +1337,19 @@
         <v>201384</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>176034</v>
+        <v>176375</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>229591</v>
+        <v>228630</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1269202869905424</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1109437638970563</v>
+        <v>0.1111589351285864</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1446980503142785</v>
+        <v>0.1440922294464747</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>407</v>
@@ -1358,19 +1358,19 @@
         <v>417200</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>381420</v>
+        <v>377743</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>459113</v>
+        <v>455182</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1271911160402134</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1162829307428161</v>
+        <v>0.1151616854825391</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1399689884217873</v>
+        <v>0.1387705661928795</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>31359</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21176</v>
+        <v>20724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43253</v>
+        <v>43572</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01851844744293457</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01250470104887257</v>
+        <v>0.01223801904301688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02554203790865922</v>
+        <v>0.02573015150571623</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1408,19 +1408,19 @@
         <v>41521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29510</v>
+        <v>29291</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56311</v>
+        <v>57264</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02616834530212466</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01859874587603392</v>
+        <v>0.01846040041056147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03548959206992722</v>
+        <v>0.03608991054975685</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -1429,19 +1429,19 @@
         <v>72881</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56213</v>
+        <v>55027</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90614</v>
+        <v>91756</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02221895012833413</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01713759596866643</v>
+        <v>0.01677591239232933</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02762533460555872</v>
+        <v>0.0279733437793256</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>3710</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>959</v>
+        <v>932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9158</v>
+        <v>9063</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002191124072939267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0005661278076811429</v>
+        <v>0.0005501280214020479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005407981467996953</v>
+        <v>0.005351771112607596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>3130</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8249</v>
+        <v>8754</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001972786479260161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0005824077429942611</v>
+        <v>0.0005827341648260008</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.005198853711107884</v>
+        <v>0.005516881192805407</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1500,19 +1500,19 @@
         <v>6841</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2886</v>
+        <v>2997</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12949</v>
+        <v>14607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002085507126595</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0008798936167431161</v>
+        <v>0.0009137427890012584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003947607306663065</v>
+        <v>0.004453337646490088</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>331108</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>307548</v>
+        <v>306137</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>352125</v>
+        <v>353131</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6021695468432453</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5593233114921393</v>
+        <v>0.5567572364330767</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6403923323966167</v>
+        <v>0.6422228632610458</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>282</v>
@@ -1625,19 +1625,19 @@
         <v>296486</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>274836</v>
+        <v>275138</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>319043</v>
+        <v>319801</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6223307193606908</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5768872197808408</v>
+        <v>0.5775213363124404</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6696789222756119</v>
+        <v>0.6712699760858296</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>598</v>
@@ -1646,19 +1646,19 @@
         <v>627594</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>593582</v>
+        <v>593115</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>656506</v>
+        <v>657148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6115287031922668</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5783874194452728</v>
+        <v>0.5779323296260351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6397015327638488</v>
+        <v>0.6403263231241458</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>149680</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130901</v>
+        <v>129270</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172208</v>
+        <v>171595</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2722156396469597</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2380638037388763</v>
+        <v>0.235097749219298</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3131872132961416</v>
+        <v>0.3120707760063639</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>107</v>
@@ -1696,19 +1696,19 @@
         <v>112323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>94450</v>
+        <v>92665</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>133302</v>
+        <v>131023</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2357679982241888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1982528407584229</v>
+        <v>0.1945069958196858</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2798037786736923</v>
+        <v>0.2750202396211942</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>252</v>
@@ -1717,19 +1717,19 @@
         <v>262003</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>237057</v>
+        <v>235134</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>291960</v>
+        <v>292782</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2552960297218119</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2309893544550072</v>
+        <v>0.2291152894618666</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2844867913475849</v>
+        <v>0.285287196272538</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>55755</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42404</v>
+        <v>42576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72356</v>
+        <v>73180</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1013993731184593</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07711884488786502</v>
+        <v>0.07743067330574582</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1315898966063103</v>
+        <v>0.1330892643170256</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>47</v>
@@ -1767,19 +1767,19 @@
         <v>49902</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37323</v>
+        <v>37191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65758</v>
+        <v>66044</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1047456584703594</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07834265948617697</v>
+        <v>0.07806420335579779</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1380282596387156</v>
+        <v>0.1386280217157138</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -1788,19 +1788,19 @@
         <v>105657</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>86475</v>
+        <v>87748</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>126918</v>
+        <v>126991</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.102952775221922</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08426187045184978</v>
+        <v>0.08550150302675336</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.123669044889608</v>
+        <v>0.1237401798427404</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>13315</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6946</v>
+        <v>7232</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22425</v>
+        <v>24051</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02421544039133569</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01263212293748019</v>
+        <v>0.01315184112898103</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04078405297703302</v>
+        <v>0.04374103004213829</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1838,19 +1838,19 @@
         <v>16776</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9676</v>
+        <v>9801</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26621</v>
+        <v>27704</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03521218824873589</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02030914201568542</v>
+        <v>0.02057205325386012</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05587883109291216</v>
+        <v>0.05815033944685714</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -1859,19 +1859,19 @@
         <v>30091</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20612</v>
+        <v>20266</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44440</v>
+        <v>42983</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02932031623321044</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02008459205756571</v>
+        <v>0.01974686851445126</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04330196212800837</v>
+        <v>0.04188281788849958</v>
       </c>
     </row>
     <row r="20">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4688</v>
+        <v>4670</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001943435696025055</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009840744662343462</v>
+        <v>0.00980151006957122</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5534</v>
+        <v>4368</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.000902175630788793</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005392551257682803</v>
+        <v>0.004256530623048615</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>1792439</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1735303</v>
+        <v>1727793</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1850961</v>
+        <v>1843303</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5473108123688698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5298645675552757</v>
+        <v>0.5275714418274617</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5651801551273904</v>
+        <v>0.5628418243263791</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1805</v>
@@ -2047,19 +2047,19 @@
         <v>1838997</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1778589</v>
+        <v>1781403</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1897401</v>
+        <v>1891596</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5443690052771288</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5264875985889566</v>
+        <v>0.5273205010272364</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5616576191952807</v>
+        <v>0.559939288509635</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3546</v>
@@ -2068,19 +2068,19 @@
         <v>3631436</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3551357</v>
+        <v>3550651</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3712258</v>
+        <v>3710485</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5458170878865177</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5337808555254711</v>
+        <v>0.5336748495652567</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.557964822961778</v>
+        <v>0.5576983453382419</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>910523</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>861341</v>
+        <v>860260</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>961740</v>
+        <v>969597</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2780229764226403</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2630053126084893</v>
+        <v>0.2626755068010915</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2936615907714557</v>
+        <v>0.2960606989391774</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>844</v>
@@ -2118,19 +2118,19 @@
         <v>857408</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>807512</v>
+        <v>807753</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>912749</v>
+        <v>908041</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2538049221727298</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2390348345914941</v>
+        <v>0.2391063117190109</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2701866468014641</v>
+        <v>0.2687928686380436</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1748</v>
@@ -2139,19 +2139,19 @@
         <v>1767932</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1693862</v>
+        <v>1698676</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1841171</v>
+        <v>1838817</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2657260788287826</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2545931100128936</v>
+        <v>0.2553166677071625</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2767342544700974</v>
+        <v>0.2763804424762834</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>458851</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>418247</v>
+        <v>415609</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>497260</v>
+        <v>500910</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.140107368407227</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1277093399588661</v>
+        <v>0.1269037395457767</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1518353814997676</v>
+        <v>0.1529499143519754</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>500</v>
@@ -2189,19 +2189,19 @@
         <v>524948</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>478869</v>
+        <v>485260</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>565458</v>
+        <v>570909</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1553920386493188</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1417521123958816</v>
+        <v>0.1436437458932927</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.167383493326449</v>
+        <v>0.1689970429344765</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>957</v>
@@ -2210,19 +2210,19 @@
         <v>983799</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>924607</v>
+        <v>928665</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1043917</v>
+        <v>1043175</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1478682736716779</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1389716106290749</v>
+        <v>0.1395815013229047</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1569042336817511</v>
+        <v>0.1567926721789628</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>100333</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>82172</v>
+        <v>81793</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124743</v>
+        <v>119507</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03063616359821731</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02509073903462995</v>
+        <v>0.0249751221905885</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03808952444402064</v>
+        <v>0.03649066920952946</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>130</v>
@@ -2260,19 +2260,19 @@
         <v>139002</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>116978</v>
+        <v>116476</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>163039</v>
+        <v>162335</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04114663956390837</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03462709039329225</v>
+        <v>0.034478504181056</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0482618782602924</v>
+        <v>0.04805349210880171</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>228</v>
@@ -2281,19 +2281,19 @@
         <v>239336</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>211502</v>
+        <v>208832</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>270566</v>
+        <v>270605</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03597293612664137</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03178939464787043</v>
+        <v>0.03138818113034544</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04066699048916776</v>
+        <v>0.04067289746353467</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>12847</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7264</v>
+        <v>7117</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23099</v>
+        <v>22434</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003922679203045499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002217948784156591</v>
+        <v>0.002173191139548887</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007053247212090214</v>
+        <v>0.006849994131325017</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -2331,19 +2331,19 @@
         <v>17862</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10290</v>
+        <v>11179</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27783</v>
+        <v>28176</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005287394336914145</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003045939600139023</v>
+        <v>0.003309119123706352</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008224167779309522</v>
+        <v>0.008340463762639593</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -2352,19 +2352,19 @@
         <v>30709</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20876</v>
+        <v>21227</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42745</v>
+        <v>44833</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004615623486380425</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003137726240480731</v>
+        <v>0.003190552348283561</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006424780274650067</v>
+        <v>0.00673853436168811</v>
       </c>
     </row>
     <row r="27">
@@ -2695,19 +2695,19 @@
         <v>533728</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>500532</v>
+        <v>505094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>563782</v>
+        <v>565603</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5516084614253182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5173006807868953</v>
+        <v>0.5220154792815698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5826698615590931</v>
+        <v>0.5845515835224698</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>656</v>
@@ -2716,19 +2716,19 @@
         <v>703155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>669598</v>
+        <v>667846</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>738370</v>
+        <v>741902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5264410565479419</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.501316999001488</v>
+        <v>0.5000053152443662</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5528060767298452</v>
+        <v>0.5554499704522293</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1158</v>
@@ -2737,19 +2737,19 @@
         <v>1236882</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1189436</v>
+        <v>1185415</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1286558</v>
+        <v>1282258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5370137077157183</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5164141031399055</v>
+        <v>0.5146685228745281</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5585814175335005</v>
+        <v>0.5567144372895526</v>
       </c>
     </row>
     <row r="5">
@@ -2766,19 +2766,19 @@
         <v>263443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>236670</v>
+        <v>234994</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291229</v>
+        <v>292227</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2722692984797589</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2445984885493907</v>
+        <v>0.2428672439638926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3009859880318966</v>
+        <v>0.3020167452151949</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>389</v>
@@ -2787,19 +2787,19 @@
         <v>417828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>382210</v>
+        <v>383904</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>450294</v>
+        <v>451859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3128210886428294</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2861545507456231</v>
+        <v>0.2874224109035062</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3371278842555108</v>
+        <v>0.3382994956509504</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>629</v>
@@ -2808,19 +2808,19 @@
         <v>681271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>639126</v>
+        <v>639461</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>728450</v>
+        <v>725063</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2957855645706428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2774874726014592</v>
+        <v>0.2776332123397432</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3162689380325487</v>
+        <v>0.314798791389854</v>
       </c>
     </row>
     <row r="6">
@@ -2837,19 +2837,19 @@
         <v>122098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102293</v>
+        <v>102442</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142837</v>
+        <v>144032</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1261882204810301</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1057195174216209</v>
+        <v>0.1058744013175617</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1476221162445129</v>
+        <v>0.1488574412218734</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>146</v>
@@ -2858,19 +2858,19 @@
         <v>157778</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>135761</v>
+        <v>135501</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>184343</v>
+        <v>182791</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1181258990992424</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.101642152599833</v>
+        <v>0.1014473289799211</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1380144681122619</v>
+        <v>0.1368528019615939</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>260</v>
@@ -2879,19 +2879,19 @@
         <v>279876</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>250021</v>
+        <v>250607</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>314976</v>
+        <v>313309</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1215128240518732</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1085509717996558</v>
+        <v>0.1088055085203411</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1367522057315281</v>
+        <v>0.1360283269564931</v>
       </c>
     </row>
     <row r="7">
@@ -2908,19 +2908,19 @@
         <v>32609</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22038</v>
+        <v>23556</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44568</v>
+        <v>45208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03370103035656775</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02277592551739801</v>
+        <v>0.02434566149837454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04606081849883764</v>
+        <v>0.04672285881374943</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -2929,19 +2929,19 @@
         <v>37090</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26432</v>
+        <v>25708</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51726</v>
+        <v>50692</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02776854673293334</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01978920312366285</v>
+        <v>0.0192469097352307</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03872637386981841</v>
+        <v>0.0379520056059041</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -2950,19 +2950,19 @@
         <v>69698</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54850</v>
+        <v>54742</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89254</v>
+        <v>88113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03026074170563056</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02381386898331787</v>
+        <v>0.0237671787668923</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03875108450526506</v>
+        <v>0.03825597838031752</v>
       </c>
     </row>
     <row r="8">
@@ -2979,19 +2979,19 @@
         <v>15707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9184</v>
+        <v>8406</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25912</v>
+        <v>26009</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01623298925732509</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009491784950579894</v>
+        <v>0.008687412845811952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02677981543876205</v>
+        <v>0.02688018405740756</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -3000,19 +3000,19 @@
         <v>19826</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12503</v>
+        <v>12103</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32556</v>
+        <v>29898</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01484340897705293</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009360562251433174</v>
+        <v>0.009061339317278721</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02437436454010584</v>
+        <v>0.02238425067554362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -3021,19 +3021,19 @@
         <v>35533</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23754</v>
+        <v>25034</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49670</v>
+        <v>50297</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01542716195613521</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01031321872224489</v>
+        <v>0.01086888424454807</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02156487052878241</v>
+        <v>0.02183731259007287</v>
       </c>
     </row>
     <row r="9">
@@ -3125,19 +3125,19 @@
         <v>1198932</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1154317</v>
+        <v>1156342</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1240525</v>
+        <v>1241317</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6130199499763352</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5902082260353085</v>
+        <v>0.5912434485143558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6342864248145407</v>
+        <v>0.6346916999510305</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>932</v>
@@ -3146,19 +3146,19 @@
         <v>997660</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>951876</v>
+        <v>954821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1041581</v>
+        <v>1035785</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5688681081302005</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5427621176570802</v>
+        <v>0.5444410335877593</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.593911946629429</v>
+        <v>0.5906070097045735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2072</v>
@@ -3167,19 +3167,19 @@
         <v>2196592</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2132096</v>
+        <v>2132334</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2261336</v>
+        <v>2258462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5921462579220206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5747597245319853</v>
+        <v>0.5748237874738923</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.609599539180273</v>
+        <v>0.6088249668825834</v>
       </c>
     </row>
     <row r="11">
@@ -3196,19 +3196,19 @@
         <v>509925</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>469312</v>
+        <v>470904</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>552721</v>
+        <v>549831</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.260727063496855</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2399615579120072</v>
+        <v>0.2407757238425115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2826088303324165</v>
+        <v>0.2811314579054937</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>504</v>
@@ -3217,19 +3217,19 @@
         <v>538047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>500747</v>
+        <v>502802</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>580815</v>
+        <v>578335</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3067959771064438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2855269651718815</v>
+        <v>0.2866989451320284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3311820104910222</v>
+        <v>0.3297682708631052</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>983</v>
@@ -3238,19 +3238,19 @@
         <v>1047972</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>989472</v>
+        <v>987514</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1106505</v>
+        <v>1106724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2825070906883496</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2667370073907624</v>
+        <v>0.2662089887173353</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2982861012266675</v>
+        <v>0.2983451203001766</v>
       </c>
     </row>
     <row r="12">
@@ -3267,19 +3267,19 @@
         <v>195986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>169838</v>
+        <v>170982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>225637</v>
+        <v>226728</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1002084208920718</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08683879336284707</v>
+        <v>0.08742371137391272</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1153691005537684</v>
+        <v>0.1159270858603445</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>153</v>
@@ -3288,19 +3288,19 @@
         <v>167014</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>144458</v>
+        <v>143350</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>194018</v>
+        <v>192335</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09523194093750106</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0823705283969897</v>
+        <v>0.08173834992592667</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.110629535222763</v>
+        <v>0.1096698336965693</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>335</v>
@@ -3309,19 +3309,19 @@
         <v>363000</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>327850</v>
+        <v>327107</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>401288</v>
+        <v>401816</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0978556875576804</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08838009398340756</v>
+        <v>0.08817985367801756</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1081773069591284</v>
+        <v>0.1083194440972344</v>
       </c>
     </row>
     <row r="13">
@@ -3338,19 +3338,19 @@
         <v>42630</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29896</v>
+        <v>30470</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57073</v>
+        <v>57747</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02179673344355251</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01528601769087493</v>
+        <v>0.01557928541031502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02918194101119943</v>
+        <v>0.02952607513291165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -3359,19 +3359,19 @@
         <v>38112</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26543</v>
+        <v>25196</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54089</v>
+        <v>53295</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02173150434985286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0151346153029589</v>
+        <v>0.01436707992807072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03084176302800413</v>
+        <v>0.03038898962028876</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -3380,19 +3380,19 @@
         <v>80742</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64055</v>
+        <v>62765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>101481</v>
+        <v>101491</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02176589504683027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01726760767304494</v>
+        <v>0.01691974112840894</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02735667016830567</v>
+        <v>0.02735947287971869</v>
       </c>
     </row>
     <row r="14">
@@ -3409,19 +3409,19 @@
         <v>8308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4090</v>
+        <v>4179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16702</v>
+        <v>16436</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00424783219118535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002091237721788668</v>
+        <v>0.002136695871754944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008539814245814292</v>
+        <v>0.008403612872145444</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -3430,19 +3430,19 @@
         <v>12930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5942</v>
+        <v>6173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22825</v>
+        <v>23161</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007372469476001745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003388378707764437</v>
+        <v>0.003520089534636805</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01301514901732393</v>
+        <v>0.01320668347960782</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -3451,19 +3451,19 @@
         <v>21237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11815</v>
+        <v>13077</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34314</v>
+        <v>34048</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005725068785119134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003185139644531449</v>
+        <v>0.003525355490094363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009250199611200004</v>
+        <v>0.009178445305540173</v>
       </c>
     </row>
     <row r="15">
@@ -3555,19 +3555,19 @@
         <v>314753</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>289589</v>
+        <v>291490</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>335818</v>
+        <v>335659</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6592952731366</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6065854629172936</v>
+        <v>0.6105660564773656</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7034178185761983</v>
+        <v>0.7030837518368179</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>277</v>
@@ -3576,19 +3576,19 @@
         <v>303856</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>282849</v>
+        <v>280471</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>325468</v>
+        <v>323571</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6625281037234906</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6167236538388273</v>
+        <v>0.6115402137296672</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7096511396312722</v>
+        <v>0.705514502723057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>568</v>
@@ -3597,19 +3597,19 @@
         <v>618609</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>586625</v>
+        <v>586465</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>648138</v>
+        <v>648133</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6608792616867526</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6267091344462125</v>
+        <v>0.6265379316802598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6924251195757715</v>
+        <v>0.6924200549916213</v>
       </c>
     </row>
     <row r="17">
@@ -3626,19 +3626,19 @@
         <v>112960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95073</v>
+        <v>93606</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133031</v>
+        <v>133879</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2366112370716447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1991433501765531</v>
+        <v>0.1960698598687777</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2786521145390572</v>
+        <v>0.2804288114546051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>100</v>
@@ -3647,19 +3647,19 @@
         <v>115462</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>97315</v>
+        <v>96632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136968</v>
+        <v>136445</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2517536182376748</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2121855434625369</v>
+        <v>0.2106967281641316</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2986456566698531</v>
+        <v>0.2975039765789155</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>204</v>
@@ -3668,19 +3668,19 @@
         <v>228422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>199906</v>
+        <v>201873</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>257736</v>
+        <v>258440</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.244030542768114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2135658505358318</v>
+        <v>0.2156675121152149</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2753475143173263</v>
+        <v>0.2760993888982348</v>
       </c>
     </row>
     <row r="18">
@@ -3697,19 +3697,19 @@
         <v>42186</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29885</v>
+        <v>29910</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59995</v>
+        <v>57802</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08836405331016772</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0625983987398874</v>
+        <v>0.06265052313769857</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1256686881496928</v>
+        <v>0.1210733548969438</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -3718,19 +3718,19 @@
         <v>36367</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26043</v>
+        <v>26093</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49382</v>
+        <v>51144</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07929476276108455</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0567849348816663</v>
+        <v>0.05689231484356907</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1076736443988868</v>
+        <v>0.1115153016971644</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -3739,19 +3739,19 @@
         <v>78553</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>61309</v>
+        <v>61052</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>99829</v>
+        <v>100754</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08392037709465289</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06549799320478213</v>
+        <v>0.06522345362475909</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1066500962791221</v>
+        <v>0.1076384109372227</v>
       </c>
     </row>
     <row r="19">
@@ -3768,19 +3768,19 @@
         <v>6572</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2213</v>
+        <v>2251</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16160</v>
+        <v>14947</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01376498429028924</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004634432597972418</v>
+        <v>0.004714403385619245</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03384965115175377</v>
+        <v>0.03130903392248106</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5965</v>
+        <v>7204</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004248295990027296</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01300542410640902</v>
+        <v>0.0157076653423685</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -3810,19 +3810,19 @@
         <v>8520</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3917</v>
+        <v>3150</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17751</v>
+        <v>16747</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009102096799644518</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004185144207308706</v>
+        <v>0.003365406340992287</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01896405608063484</v>
+        <v>0.01789140350475804</v>
       </c>
     </row>
     <row r="20">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4833</v>
+        <v>5271</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0019644521912984</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01012408169758944</v>
+        <v>0.01103991897557662</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4688</v>
+        <v>5013</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002175219287722805</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01022085491465557</v>
+        <v>0.01092961228916333</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6779</v>
+        <v>7735</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002067721650836107</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007241888264483858</v>
+        <v>0.00826350549803645</v>
       </c>
     </row>
     <row r="21">
@@ -3985,19 +3985,19 @@
         <v>2047413</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1985020</v>
+        <v>1986379</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2104185</v>
+        <v>2110477</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6020434748326834</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.583696757098933</v>
+        <v>0.5840961778795888</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6187372920340133</v>
+        <v>0.6205873416593873</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1865</v>
@@ -4006,19 +4006,19 @@
         <v>2004671</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1946221</v>
+        <v>1945947</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2067068</v>
+        <v>2065311</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5650030668100009</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5485292966464479</v>
+        <v>0.5484520505831975</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5825892609176927</v>
+        <v>0.5820939758380258</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3798</v>
@@ -4027,19 +4027,19 @@
         <v>4052084</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3966277</v>
+        <v>3962514</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4135503</v>
+        <v>4135901</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5831306892173261</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5707823176578821</v>
+        <v>0.5702407882425505</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5951354998084154</v>
+        <v>0.5951926832891133</v>
       </c>
     </row>
     <row r="23">
@@ -4056,19 +4056,19 @@
         <v>886329</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>832121</v>
+        <v>828875</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>943883</v>
+        <v>934627</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2606256063174028</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2446858188924905</v>
+        <v>0.2437312259278331</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2775496114993157</v>
+        <v>0.2748277733564329</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>993</v>
@@ -4077,19 +4077,19 @@
         <v>1071337</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1019498</v>
+        <v>1016808</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1129446</v>
+        <v>1126708</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3019492485549735</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2873386600582866</v>
+        <v>0.2865804208077777</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3183267542005755</v>
+        <v>0.3175550562744967</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1816</v>
@@ -4098,19 +4098,19 @@
         <v>1957666</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1875835</v>
+        <v>1879902</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2028936</v>
+        <v>2045514</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2817254059202123</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2699492510056621</v>
+        <v>0.2705345467125142</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2919818660187841</v>
+        <v>0.2943676278035626</v>
       </c>
     </row>
     <row r="24">
@@ -4127,19 +4127,19 @@
         <v>360269</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>319787</v>
+        <v>325447</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>400263</v>
+        <v>401314</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1059374191687057</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09403353534653436</v>
+        <v>0.09569807772423861</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1176976070263338</v>
+        <v>0.1180066713229014</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>331</v>
@@ -4148,19 +4148,19 @@
         <v>361159</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>324824</v>
+        <v>324813</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>400763</v>
+        <v>396573</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1017903338533113</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09154958340531369</v>
+        <v>0.09154623562945065</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1129524109159238</v>
+        <v>0.1117713409653867</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>660</v>
@@ -4169,19 +4169,19 @@
         <v>721428</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>670917</v>
+        <v>667567</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>780757</v>
+        <v>772044</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1038199226376032</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09655084300846682</v>
+        <v>0.09606881754523711</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1123578424126153</v>
+        <v>0.1111040041827059</v>
       </c>
     </row>
     <row r="25">
@@ -4198,19 +4198,19 @@
         <v>81810</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65751</v>
+        <v>64940</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102930</v>
+        <v>101158</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02405621221334536</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01933416629235036</v>
+        <v>0.01909577632377238</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03026655321677819</v>
+        <v>0.02974560686681012</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -4219,19 +4219,19 @@
         <v>77150</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60367</v>
+        <v>60065</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97167</v>
+        <v>98350</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02174424202434561</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01701408053206193</v>
+        <v>0.01692882860175831</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02738576755282071</v>
+        <v>0.02771940049741334</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>145</v>
@@ -4240,19 +4240,19 @@
         <v>158960</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>134156</v>
+        <v>130605</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>185065</v>
+        <v>184018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02287572315105228</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01930625813114348</v>
+        <v>0.01879517958281713</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0266324681872686</v>
+        <v>0.02648179506801878</v>
       </c>
     </row>
     <row r="26">
@@ -4269,19 +4269,19 @@
         <v>24952</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16056</v>
+        <v>16169</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37309</v>
+        <v>36561</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007337287467862662</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004721326008262712</v>
+        <v>0.004754453075664452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01097080049162703</v>
+        <v>0.01075089194199263</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>30</v>
@@ -4290,19 +4290,19 @@
         <v>33753</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22763</v>
+        <v>23434</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47704</v>
+        <v>49797</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009513108757368655</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00641554061129661</v>
+        <v>0.006604849799704791</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01344519277651872</v>
+        <v>0.01403495290372792</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>53</v>
@@ -4311,19 +4311,19 @@
         <v>58706</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44840</v>
+        <v>42970</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>76937</v>
+        <v>76680</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008448259073806025</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006452814085203277</v>
+        <v>0.006183782553724222</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01107189092975601</v>
+        <v>0.01103488026774709</v>
       </c>
     </row>
     <row r="27">
@@ -4654,19 +4654,19 @@
         <v>369217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>344066</v>
+        <v>341607</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>397044</v>
+        <v>394454</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.490732200939387</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4573030539501879</v>
+        <v>0.4540347839874776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5277172108852387</v>
+        <v>0.5242743934509948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>379</v>
@@ -4675,19 +4675,19 @@
         <v>415626</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>382875</v>
+        <v>384716</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>450977</v>
+        <v>445445</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4188850998263787</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3858769291393215</v>
+        <v>0.387732169961346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4545133933109436</v>
+        <v>0.4489373159307827</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>750</v>
@@ -4696,19 +4696,19 @@
         <v>784843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>747758</v>
+        <v>740755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>831703</v>
+        <v>825743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4498700228708528</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4286131277814467</v>
+        <v>0.4245988182229183</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4767299417828702</v>
+        <v>0.4733138292281492</v>
       </c>
     </row>
     <row r="5">
@@ -4725,19 +4725,19 @@
         <v>215311</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>190224</v>
+        <v>191657</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>240653</v>
+        <v>237731</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2861733039490432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2528293021537605</v>
+        <v>0.2547337481626612</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3198561473056956</v>
+        <v>0.3159722392856325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>299</v>
@@ -4746,19 +4746,19 @@
         <v>335412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300881</v>
+        <v>303590</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>364351</v>
+        <v>367006</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.338042298022351</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3032398499059125</v>
+        <v>0.3059708898128292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3672082941814603</v>
+        <v>0.3698836885922841</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>517</v>
@@ -4767,19 +4767,19 @@
         <v>550723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>509461</v>
+        <v>512746</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>592021</v>
+        <v>592411</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3156731729656862</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2920218000307666</v>
+        <v>0.2939047203031743</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3393450360492752</v>
+        <v>0.3395681251323185</v>
       </c>
     </row>
     <row r="6">
@@ -4796,19 +4796,19 @@
         <v>134858</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114654</v>
+        <v>114630</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157031</v>
+        <v>156780</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1792420941490163</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1523889247705325</v>
+        <v>0.1523568198428514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2087120260774623</v>
+        <v>0.2083792550718282</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>159</v>
@@ -4817,19 +4817,19 @@
         <v>178474</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>152633</v>
+        <v>152311</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>206444</v>
+        <v>203557</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1798737934920056</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1538297741609059</v>
+        <v>0.1535054423054577</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2080623011965018</v>
+        <v>0.2051530534126478</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>295</v>
@@ -4838,19 +4838,19 @@
         <v>313333</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>282517</v>
+        <v>281769</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>347102</v>
+        <v>347185</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1796013655829243</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1619377589230104</v>
+        <v>0.1615090548441006</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1989582008346423</v>
+        <v>0.1990053297027594</v>
       </c>
     </row>
     <row r="7">
@@ -4867,19 +4867,19 @@
         <v>29994</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20573</v>
+        <v>20898</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41537</v>
+        <v>42079</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03986530558980709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02734346213347429</v>
+        <v>0.02777582990293769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05520698452943828</v>
+        <v>0.05592723089234098</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -4888,19 +4888,19 @@
         <v>51668</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39397</v>
+        <v>38153</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69304</v>
+        <v>68000</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05207331604896243</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03970621669581565</v>
+        <v>0.03845171346873363</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06984728779087394</v>
+        <v>0.06853353593003186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -4909,19 +4909,19 @@
         <v>81662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63593</v>
+        <v>64951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101496</v>
+        <v>101251</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04680846529307611</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03645153412160678</v>
+        <v>0.03722960296295855</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05817746215449189</v>
+        <v>0.05803656815172397</v>
       </c>
     </row>
     <row r="8">
@@ -4938,19 +4938,19 @@
         <v>3000</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8524</v>
+        <v>8088</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003987095372746473</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001202084885606113</v>
+        <v>0.001192553529221817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0113287343560728</v>
+        <v>0.01075044594815852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -4959,19 +4959,19 @@
         <v>11039</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5690</v>
+        <v>5137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20913</v>
+        <v>20167</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01112549261030226</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005734216960252851</v>
+        <v>0.005177281034840978</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0210766177830396</v>
+        <v>0.02032510562663405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -4980,19 +4980,19 @@
         <v>14039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7458</v>
+        <v>7500</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24311</v>
+        <v>24212</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008046973287460634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004275061041048436</v>
+        <v>0.004299259648772919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0139350990073612</v>
+        <v>0.01387845696206509</v>
       </c>
     </row>
     <row r="9">
@@ -5084,19 +5084,19 @@
         <v>1016812</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>973100</v>
+        <v>971290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1064756</v>
+        <v>1063722</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4919065409882174</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4707595362214883</v>
+        <v>0.4698841057770095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.515100569703238</v>
+        <v>0.514600109827284</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>968</v>
@@ -5105,19 +5105,19 @@
         <v>1000023</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>955153</v>
+        <v>957303</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1041449</v>
+        <v>1045758</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5046459219492235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4820032971987231</v>
+        <v>0.4830883223158126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5255509786140476</v>
+        <v>0.5277253889935961</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1925</v>
@@ -5126,19 +5126,19 @@
         <v>2016835</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1952902</v>
+        <v>1955179</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2081109</v>
+        <v>2082622</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4981417930347337</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4823510595710211</v>
+        <v>0.4829132508279204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.514017055632392</v>
+        <v>0.5143907802478087</v>
       </c>
     </row>
     <row r="11">
@@ -5155,19 +5155,19 @@
         <v>682783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>635891</v>
+        <v>637333</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>721196</v>
+        <v>726380</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3303122290342371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3076273040730794</v>
+        <v>0.3083247219422697</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3488953461824034</v>
+        <v>0.3514031740400995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>628</v>
@@ -5176,19 +5176,19 @@
         <v>654810</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>612038</v>
+        <v>613220</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>696141</v>
+        <v>694984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3304397540607261</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3088557200037711</v>
+        <v>0.3094519827740437</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3512965937704044</v>
+        <v>0.3507127234516589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1275</v>
@@ -5197,19 +5197,19 @@
         <v>1337593</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1274659</v>
+        <v>1277586</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1398118</v>
+        <v>1399484</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3303746457784126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3148303376129892</v>
+        <v>0.3155534628909172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.345323796193447</v>
+        <v>0.3456612135302883</v>
       </c>
     </row>
     <row r="12">
@@ -5226,19 +5226,19 @@
         <v>317566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>285653</v>
+        <v>282499</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>353987</v>
+        <v>351503</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1536300874146965</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1381914375424948</v>
+        <v>0.1366654314216221</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1712496868495235</v>
+        <v>0.1700476304755696</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>273</v>
@@ -5247,19 +5247,19 @@
         <v>292660</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>260081</v>
+        <v>263460</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>325297</v>
+        <v>325555</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1476864884071025</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1312456804767158</v>
+        <v>0.13295080673675</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.16415630660544</v>
+        <v>0.1642863989517008</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>570</v>
@@ -5268,19 +5268,19 @@
         <v>610227</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>569228</v>
+        <v>567262</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>659404</v>
+        <v>661348</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1507210105930512</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1405947862847853</v>
+        <v>0.1401090588149227</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1628673594641126</v>
+        <v>0.1633476502985245</v>
       </c>
     </row>
     <row r="13">
@@ -5297,19 +5297,19 @@
         <v>34771</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23155</v>
+        <v>23442</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48697</v>
+        <v>48182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01682115157281992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01120181849380469</v>
+        <v>0.01134046499695802</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02355817494750099</v>
+        <v>0.02330933315358997</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5318,19 +5318,19 @@
         <v>24710</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16046</v>
+        <v>16459</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34726</v>
+        <v>37986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01246948916373706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008097517329578936</v>
+        <v>0.008305611445178935</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01752407741994589</v>
+        <v>0.01916884518858482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -5339,19 +5339,19 @@
         <v>59481</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46370</v>
+        <v>45652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79699</v>
+        <v>75320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01469124337515827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01145302710640642</v>
+        <v>0.01127561870562741</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01968503618932402</v>
+        <v>0.01860343138443796</v>
       </c>
     </row>
     <row r="14">
@@ -5368,19 +5368,19 @@
         <v>15152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8347</v>
+        <v>8657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24767</v>
+        <v>26218</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007329990990029075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004038146091940215</v>
+        <v>0.004187894948639501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01198168166117969</v>
+        <v>0.01268368290206702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -5389,19 +5389,19 @@
         <v>9429</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4264</v>
+        <v>4155</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17410</v>
+        <v>17277</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004758346419210773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002151600703135429</v>
+        <v>0.002096939926005295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.008785860865652202</v>
+        <v>0.008718349367827512</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -5410,19 +5410,19 @@
         <v>24581</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16014</v>
+        <v>16160</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35819</v>
+        <v>36898</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00607130721864425</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003955242754403356</v>
+        <v>0.003991437858523495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008846894419027869</v>
+        <v>0.009113404684499836</v>
       </c>
     </row>
     <row r="15">
@@ -5514,19 +5514,19 @@
         <v>308833</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>284974</v>
+        <v>282975</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>333099</v>
+        <v>332476</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5656062070582873</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5219109044774377</v>
+        <v>0.5182498674673387</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6100481924521525</v>
+        <v>0.6089074783598284</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>325</v>
@@ -5535,19 +5535,19 @@
         <v>335300</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>311926</v>
+        <v>311134</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>357809</v>
+        <v>357799</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6146588510969623</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5718096462630657</v>
+        <v>0.5703593546159299</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6559218008745054</v>
+        <v>0.6559037761670622</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>610</v>
@@ -5556,19 +5556,19 @@
         <v>644133</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>612717</v>
+        <v>614403</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>676777</v>
+        <v>678315</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5901209489872854</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5613389307583856</v>
+        <v>0.5628836364311839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6200273870954481</v>
+        <v>0.6214365074348897</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>175719</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154451</v>
+        <v>151415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200504</v>
+        <v>199876</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3218173860431709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2828661940643677</v>
+        <v>0.2773066356797866</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.367208430949397</v>
+        <v>0.3660600049483362</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>144</v>
@@ -5606,19 +5606,19 @@
         <v>151748</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131992</v>
+        <v>130821</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>171802</v>
+        <v>175820</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2781789922301717</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2419619589655384</v>
+        <v>0.239816148686319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3149412387173368</v>
+        <v>0.322306177352351</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>306</v>
@@ -5627,19 +5627,19 @@
         <v>327467</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>297213</v>
+        <v>298965</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>358365</v>
+        <v>357993</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3000084910592797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2722913068913229</v>
+        <v>0.2738964240822696</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3283154464795026</v>
+        <v>0.3279748490290406</v>
       </c>
     </row>
     <row r="18">
@@ -5656,19 +5656,19 @@
         <v>59555</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45214</v>
+        <v>46263</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78443</v>
+        <v>78025</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1090714862351588</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08280676189111714</v>
+        <v>0.08472756088538158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1436634050443009</v>
+        <v>0.1428967730174954</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -5677,19 +5677,19 @@
         <v>49949</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37379</v>
+        <v>38153</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64129</v>
+        <v>66516</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09156526301630326</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06852205869554055</v>
+        <v>0.06994082242196421</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1175595894279209</v>
+        <v>0.1219339298726006</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>97</v>
@@ -5698,19 +5698,19 @@
         <v>109505</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>89287</v>
+        <v>90254</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>131306</v>
+        <v>129957</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1003225074028799</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.081800186224775</v>
+        <v>0.08268576870830754</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1202961270435756</v>
+        <v>0.1190596296153601</v>
       </c>
     </row>
     <row r="19">
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5315</v>
+        <v>5069</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001686447659611215</v>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009734427252051391</v>
+        <v>0.0092842775876502</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -5748,19 +5748,19 @@
         <v>7058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3008</v>
+        <v>3053</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13334</v>
+        <v>13286</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01293777748921947</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005514565822737762</v>
+        <v>0.005596403684998103</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02444370168217872</v>
+        <v>0.02435540228241813</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -5769,19 +5769,19 @@
         <v>7978</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3869</v>
+        <v>3839</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14711</v>
+        <v>14239</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007309456419616369</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003544906246364642</v>
+        <v>0.003517268162353495</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01347786160237843</v>
+        <v>0.01304458158300655</v>
       </c>
     </row>
     <row r="20">
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5049</v>
+        <v>5027</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001818473003771733</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009247531773302118</v>
+        <v>0.00920595677989376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7306</v>
+        <v>8230</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002659116167343302</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01339224561826303</v>
+        <v>0.01508714896704982</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8115</v>
+        <v>8128</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002238596130938645</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007434698097595777</v>
+        <v>0.007446725099711505</v>
       </c>
     </row>
     <row r="21">
@@ -5944,19 +5944,19 @@
         <v>1694862</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1634664</v>
+        <v>1637656</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1748000</v>
+        <v>1757245</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5036011490124884</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4857141991933506</v>
+        <v>0.4866032774464038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5193902248545926</v>
+        <v>0.5221371489559045</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1672</v>
@@ -5965,19 +5965,19 @@
         <v>1750949</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1693412</v>
+        <v>1689702</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1813500</v>
+        <v>1808416</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4975193523858877</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.481170734604269</v>
+        <v>0.4801165749770694</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5152929417788837</v>
+        <v>0.5138482821202153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3285</v>
@@ -5986,19 +5986,19 @@
         <v>3445810</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3368619</v>
+        <v>3359079</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3534976</v>
+        <v>3529146</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5004922879137444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4892804423049618</v>
+        <v>0.4878948158983517</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5134433673163095</v>
+        <v>0.5125965253129798</v>
       </c>
     </row>
     <row r="23">
@@ -6015,19 +6015,19 @@
         <v>1073813</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1021251</v>
+        <v>1014671</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1128511</v>
+        <v>1127272</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.319066421388719</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3034484105918655</v>
+        <v>0.3014933780625277</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3353189683272977</v>
+        <v>0.3349508767305929</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1071</v>
@@ -6036,19 +6036,19 @@
         <v>1141971</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1088359</v>
+        <v>1088513</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1199286</v>
+        <v>1198572</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3244826598652568</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.309249191234862</v>
+        <v>0.3092931945649891</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3407684818062384</v>
+        <v>0.3405656182446175</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2098</v>
@@ -6057,19 +6057,19 @@
         <v>2215784</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2137173</v>
+        <v>2135891</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2294381</v>
+        <v>2298948</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3218350659414784</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3104171081941455</v>
+        <v>0.3102309535462378</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3332510238040808</v>
+        <v>0.3339143482838509</v>
       </c>
     </row>
     <row r="24">
@@ -6086,19 +6086,19 @@
         <v>511980</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>472815</v>
+        <v>475509</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>554676</v>
+        <v>560842</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1521265940312374</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.140489296852126</v>
+        <v>0.1412899275852336</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1648129851085007</v>
+        <v>0.1666453669134562</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>478</v>
@@ -6107,19 +6107,19 @@
         <v>521084</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>481448</v>
+        <v>481244</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>567202</v>
+        <v>567648</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1480622526045811</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1368000045823954</v>
+        <v>0.1367421102952144</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1611664094029493</v>
+        <v>0.1612931581437722</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>962</v>
@@ -6128,19 +6128,19 @@
         <v>1033064</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>968501</v>
+        <v>969207</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1088937</v>
+        <v>1095179</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1500490051657893</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1406715457075867</v>
+        <v>0.1407740993851975</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1581643656477652</v>
+        <v>0.1590710345930984</v>
       </c>
     </row>
     <row r="25">
@@ -6157,19 +6157,19 @@
         <v>65685</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51427</v>
+        <v>51428</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84369</v>
+        <v>84351</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01951737095501001</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01528057699559831</v>
+        <v>0.01528086871674337</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02506894298712255</v>
+        <v>0.02506367457568549</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -6178,19 +6178,19 @@
         <v>83436</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65601</v>
+        <v>67174</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>104128</v>
+        <v>105538</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02370766896041423</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01864018079260562</v>
+        <v>0.01908688356501084</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02958719283264483</v>
+        <v>0.02998780132176929</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -6199,19 +6199,19 @@
         <v>149121</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>126040</v>
+        <v>126089</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>175422</v>
+        <v>175564</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02165934564784464</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01830684546222726</v>
+        <v>0.01831406694839627</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02547945215172935</v>
+        <v>0.02550004279734384</v>
       </c>
     </row>
     <row r="26">
@@ -6228,19 +6228,19 @@
         <v>19144</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12096</v>
+        <v>11585</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29659</v>
+        <v>28981</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005688464612545184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003594280357544112</v>
+        <v>0.003442234929882962</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008812729192303553</v>
+        <v>0.00861125919367171</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -6249,19 +6249,19 @@
         <v>21919</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13904</v>
+        <v>13147</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34533</v>
+        <v>33405</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006228066183860253</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003950794228239689</v>
+        <v>0.003735729283614849</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.009812273906122722</v>
+        <v>0.009491711880242393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -6270,19 +6270,19 @@
         <v>41063</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29214</v>
+        <v>29615</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>55666</v>
+        <v>54402</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005964295331143248</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004243247721533962</v>
+        <v>0.00430141018075366</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008085332434192464</v>
+        <v>0.007901709121044232</v>
       </c>
     </row>
     <row r="27">
@@ -6613,19 +6613,19 @@
         <v>301392</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>278811</v>
+        <v>279442</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>323909</v>
+        <v>323734</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.525318316255028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4859607764531483</v>
+        <v>0.4870599842043993</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5645656446785046</v>
+        <v>0.5642603656692455</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>697</v>
@@ -6634,19 +6634,19 @@
         <v>409254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>387691</v>
+        <v>387204</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>429634</v>
+        <v>431255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5044224558231106</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4778452969084185</v>
+        <v>0.4772458597702802</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5295423251182863</v>
+        <v>0.5315406947743692</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1051</v>
@@ -6655,19 +6655,19 @@
         <v>710646</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>677765</v>
+        <v>679526</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>745552</v>
+        <v>743505</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.51307810842187</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4893386899945541</v>
+        <v>0.4906098541840137</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5382804168094103</v>
+        <v>0.5368022903758883</v>
       </c>
     </row>
     <row r="5">
@@ -6684,19 +6684,19 @@
         <v>138090</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119443</v>
+        <v>120012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>157959</v>
+        <v>158577</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2406866926999475</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2081857577157084</v>
+        <v>0.2091784117255467</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.275318365273858</v>
+        <v>0.2763961901558636</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>367</v>
@@ -6705,19 +6705,19 @@
         <v>209553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>189190</v>
+        <v>190110</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228036</v>
+        <v>229328</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2582825421394352</v>
+        <v>0.2582825421394353</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2331851362331715</v>
+        <v>0.2343189765939708</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2810646229153745</v>
+        <v>0.2826569904910893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>536</v>
@@ -6726,19 +6726,19 @@
         <v>347642</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>321156</v>
+        <v>321166</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>376010</v>
+        <v>374980</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2509938468294473</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2318708371778433</v>
+        <v>0.2318784066724194</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2714751313014011</v>
+        <v>0.2707312737032519</v>
       </c>
     </row>
     <row r="6">
@@ -6755,19 +6755,19 @@
         <v>85209</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71770</v>
+        <v>69833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>104319</v>
+        <v>101084</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1485175252049622</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1250934494935513</v>
+        <v>0.1217179084236686</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1818247830524213</v>
+        <v>0.1761876313336892</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>213</v>
@@ -6776,19 +6776,19 @@
         <v>116067</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>101940</v>
+        <v>101612</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>130950</v>
+        <v>131605</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1430578126930795</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1256452628884082</v>
+        <v>0.1252410943891786</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1614009334555436</v>
+        <v>0.1622092354702071</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>316</v>
@@ -6797,19 +6797,19 @@
         <v>201276</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>179576</v>
+        <v>178855</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>224990</v>
+        <v>223857</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1453193790423538</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1296518898726753</v>
+        <v>0.1291316471504563</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1624401965025304</v>
+        <v>0.1616222425272229</v>
       </c>
     </row>
     <row r="7">
@@ -6826,19 +6826,19 @@
         <v>36704</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26553</v>
+        <v>26584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53066</v>
+        <v>54640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06397489221093366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04628034633612765</v>
+        <v>0.04633579946997336</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09249192867749406</v>
+        <v>0.09523588399618216</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -6847,19 +6847,19 @@
         <v>53468</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43747</v>
+        <v>44077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65767</v>
+        <v>66127</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06590194448440238</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05391961531842613</v>
+        <v>0.05432628476964417</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08106006580248812</v>
+        <v>0.08150437891872592</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -6868,19 +6868,19 @@
         <v>90173</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73697</v>
+        <v>74301</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107600</v>
+        <v>108045</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06510370527941052</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05320838048409205</v>
+        <v>0.05364466746194262</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07768608479349479</v>
+        <v>0.0780074239780814</v>
       </c>
     </row>
     <row r="8">
@@ -6897,19 +6897,19 @@
         <v>12337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7309</v>
+        <v>6748</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21595</v>
+        <v>19879</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02150257362912862</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01273922662763703</v>
+        <v>0.01176125671638231</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03763970705554348</v>
+        <v>0.03464795513369499</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -6918,19 +6918,19 @@
         <v>22989</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16419</v>
+        <v>16430</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31298</v>
+        <v>31460</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02833524485997211</v>
+        <v>0.02833524485997212</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02023752145027639</v>
+        <v>0.02025092463429455</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03857552453095559</v>
+        <v>0.03877618844187214</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -6939,19 +6939,19 @@
         <v>35326</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26259</v>
+        <v>26182</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45247</v>
+        <v>46064</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02550496042691842</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0189586003961463</v>
+        <v>0.01890295414041799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03266813178430357</v>
+        <v>0.03325779829960828</v>
       </c>
     </row>
     <row r="9">
@@ -7043,19 +7043,19 @@
         <v>1372238</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1318201</v>
+        <v>1325726</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1425006</v>
+        <v>1418642</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6166354323810566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5923534073527725</v>
+        <v>0.595734847192504</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.640347721578216</v>
+        <v>0.6374880106428599</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1693</v>
@@ -7064,19 +7064,19 @@
         <v>1316528</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1269623</v>
+        <v>1273286</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1355201</v>
+        <v>1356141</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6099098503157655</v>
+        <v>0.6099098503157656</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5881801308213258</v>
+        <v>0.5898773448428378</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6278259249192925</v>
+        <v>0.628261731548971</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2871</v>
@@ -7085,19 +7085,19 @@
         <v>2688765</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2620301</v>
+        <v>2621331</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2754642</v>
+        <v>2751267</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6133238835898565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5977067672195137</v>
+        <v>0.5979417076059024</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6283508304756248</v>
+        <v>0.6275809070380726</v>
       </c>
     </row>
     <row r="11">
@@ -7114,19 +7114,19 @@
         <v>605235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>557480</v>
+        <v>561853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654915</v>
+        <v>652116</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2719712747769454</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2505118455756559</v>
+        <v>0.2524770222401885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2942956560901249</v>
+        <v>0.293038026518963</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>865</v>
@@ -7135,19 +7135,19 @@
         <v>584075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>547407</v>
+        <v>547285</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>622789</v>
+        <v>622808</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2705855322998839</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2535982404893234</v>
+        <v>0.2535413787765302</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2885203348336879</v>
+        <v>0.2885293502761184</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1443</v>
@@ -7156,19 +7156,19 @@
         <v>1189310</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1126649</v>
+        <v>1131174</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1250133</v>
+        <v>1253620</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2712889615168768</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2569955341656126</v>
+        <v>0.2580277960143201</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2851630539834145</v>
+        <v>0.2859585366540498</v>
       </c>
     </row>
     <row r="12">
@@ -7185,19 +7185,19 @@
         <v>175104</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>148745</v>
+        <v>148570</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>207447</v>
+        <v>206390</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07868555435281605</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06684076860246348</v>
+        <v>0.06676193114573699</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09321923241020326</v>
+        <v>0.09274457089497376</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>233</v>
@@ -7206,19 +7206,19 @@
         <v>175570</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>154021</v>
+        <v>152300</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>199998</v>
+        <v>199490</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08133655826143153</v>
+        <v>0.08133655826143155</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07135370535744862</v>
+        <v>0.07055640679842122</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09265337875857878</v>
+        <v>0.09241820054883804</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>388</v>
@@ -7227,19 +7227,19 @@
         <v>350674</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>314498</v>
+        <v>316321</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>391695</v>
+        <v>393095</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07999085829585285</v>
+        <v>0.07999085829585287</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07173896662556857</v>
+        <v>0.07215483471186405</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0893480920496416</v>
+        <v>0.08966748150331723</v>
       </c>
     </row>
     <row r="13">
@@ -7256,19 +7256,19 @@
         <v>47818</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36275</v>
+        <v>34710</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63803</v>
+        <v>63175</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02148790280151791</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01630049380237891</v>
+        <v>0.01559729544279263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02867102620328694</v>
+        <v>0.02838840404091009</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -7277,19 +7277,19 @@
         <v>57187</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45508</v>
+        <v>45168</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69983</v>
+        <v>70842</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02649289340661382</v>
+        <v>0.02649289340661383</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02108272632178608</v>
+        <v>0.0209249203165962</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03242110180665123</v>
+        <v>0.03281918890677536</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -7298,19 +7298,19 @@
         <v>105005</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87015</v>
+        <v>87707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124219</v>
+        <v>125661</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02395226505706277</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01984858445194294</v>
+        <v>0.02000659913230445</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02833511269676665</v>
+        <v>0.02866394292764967</v>
       </c>
     </row>
     <row r="14">
@@ -7327,19 +7327,19 @@
         <v>24968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15832</v>
+        <v>16114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36137</v>
+        <v>36399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01121983568766429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007114432759057634</v>
+        <v>0.00724095292111789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01623868419808453</v>
+        <v>0.01635650573914956</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -7348,19 +7348,19 @@
         <v>25202</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17310</v>
+        <v>16708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39124</v>
+        <v>40050</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01167516571630527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008019407339607433</v>
+        <v>0.007740161666092532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01812518767563635</v>
+        <v>0.01855411595138597</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>57</v>
@@ -7369,19 +7369,19 @@
         <v>50170</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37360</v>
+        <v>38596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66461</v>
+        <v>67405</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01144403154035111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008521946556926972</v>
+        <v>0.008804064801685319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01516006038446931</v>
+        <v>0.01537556714211905</v>
       </c>
     </row>
     <row r="15">
@@ -7473,19 +7473,19 @@
         <v>483365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>456509</v>
+        <v>455226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>509935</v>
+        <v>509511</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6835993440716183</v>
+        <v>0.6835993440716182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6456180384913504</v>
+        <v>0.6438036584948531</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7211767344670719</v>
+        <v>0.720576976491709</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>686</v>
@@ -7494,19 +7494,19 @@
         <v>516601</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>495264</v>
+        <v>494389</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>539462</v>
+        <v>538284</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7054218562682946</v>
+        <v>0.7054218562682947</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6762857412471447</v>
+        <v>0.6750915405068735</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7366385819739236</v>
+        <v>0.7350305200243822</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1138</v>
@@ -7515,19 +7515,19 @@
         <v>999966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>963133</v>
+        <v>964641</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1030996</v>
+        <v>1031015</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6947019387901191</v>
+        <v>0.694701938790119</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6691132177668593</v>
+        <v>0.6701610472939314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7162596375321658</v>
+        <v>0.7162722938244185</v>
       </c>
     </row>
     <row r="17">
@@ -7544,19 +7544,19 @@
         <v>169174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146446</v>
+        <v>145860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195487</v>
+        <v>192641</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2392540641371208</v>
+        <v>0.2392540641371207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2071111430418335</v>
+        <v>0.2062831785906133</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2764670980617812</v>
+        <v>0.2724433082468032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>262</v>
@@ -7565,19 +7565,19 @@
         <v>177085</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157395</v>
+        <v>159312</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196325</v>
+        <v>198681</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2418112728964413</v>
+        <v>0.2418112728964414</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2149242603579313</v>
+        <v>0.2175409523913485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2680834968469114</v>
+        <v>0.2713006019832822</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>435</v>
@@ -7586,19 +7586,19 @@
         <v>346259</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>318856</v>
+        <v>316002</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>378130</v>
+        <v>377408</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2405550899864572</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2215174608151207</v>
+        <v>0.2195347953617727</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2626964222041804</v>
+        <v>0.262194895500248</v>
       </c>
     </row>
     <row r="18">
@@ -7615,19 +7615,19 @@
         <v>35954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24793</v>
+        <v>24676</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51350</v>
+        <v>50748</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05084806175286715</v>
+        <v>0.05084806175286714</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03506334935141506</v>
+        <v>0.03489864815324269</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07262152093598305</v>
+        <v>0.07177051921394741</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -7636,19 +7636,19 @@
         <v>26446</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17750</v>
+        <v>18585</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38219</v>
+        <v>36784</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03611158347084097</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02423738485587601</v>
+        <v>0.0253773730988592</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05218832342485504</v>
+        <v>0.05022924364042217</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>69</v>
@@ -7657,19 +7657,19 @@
         <v>62400</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47643</v>
+        <v>48579</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79718</v>
+        <v>81741</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04335061395818823</v>
+        <v>0.04335061395818822</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03309859783188879</v>
+        <v>0.03374935024500016</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05538182295973806</v>
+        <v>0.05678755186548233</v>
       </c>
     </row>
     <row r="19">
@@ -7686,19 +7686,19 @@
         <v>14215</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7825</v>
+        <v>7600</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27381</v>
+        <v>25645</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02010418744956972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0110671459859508</v>
+        <v>0.01074761326274521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03872398718348839</v>
+        <v>0.03626880744790854</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -7707,19 +7707,19 @@
         <v>7636</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3946</v>
+        <v>4240</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13727</v>
+        <v>13855</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01042739950962395</v>
+        <v>0.01042739950962396</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005387764461182932</v>
+        <v>0.005789983162118019</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01874405247402632</v>
+        <v>0.01891935698935259</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -7728,19 +7728,19 @@
         <v>21852</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13566</v>
+        <v>14333</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32889</v>
+        <v>33966</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01518094792032539</v>
+        <v>0.01518094792032538</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00942481360647709</v>
+        <v>0.009957424335497423</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02284890825338397</v>
+        <v>0.02359698409899405</v>
       </c>
     </row>
     <row r="20">
@@ -7757,19 +7757,19 @@
         <v>4380</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>111</v>
+        <v>1159</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11811</v>
+        <v>11629</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.00619434258882416</v>
+        <v>0.006194342588824159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0001567360190607123</v>
+        <v>0.001639753137282753</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01670374430805801</v>
+        <v>0.0164469696516846</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -7778,19 +7778,19 @@
         <v>4561</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1886</v>
+        <v>1768</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8561</v>
+        <v>9080</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006227887854798956</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00257507524008151</v>
+        <v>0.00241371836883334</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01168960096729716</v>
+        <v>0.01239828849772792</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -7799,19 +7799,19 @@
         <v>8941</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4281</v>
+        <v>4415</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17511</v>
+        <v>16869</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006211409344910069</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002974301000106757</v>
+        <v>0.003066997926003884</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01216535290531455</v>
+        <v>0.01171899177690069</v>
       </c>
     </row>
     <row r="21">
@@ -7903,19 +7903,19 @@
         <v>2156994</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2093233</v>
+        <v>2099180</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2219623</v>
+        <v>2222614</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6151973483617879</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5970118917147708</v>
+        <v>0.5987079353644136</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6330596953753241</v>
+        <v>0.6339126461329496</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3076</v>
@@ -7924,19 +7924,19 @@
         <v>2242382</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2188324</v>
+        <v>2187948</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2294370</v>
+        <v>2295573</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.605685642792173</v>
+        <v>0.6056856427921731</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5910840345673548</v>
+        <v>0.5909826667574134</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6197280013150412</v>
+        <v>0.6200528831512638</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5060</v>
@@ -7945,19 +7945,19 @@
         <v>4399376</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4320002</v>
+        <v>4306672</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4482884</v>
+        <v>4486814</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6103121564718983</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5993008807652155</v>
+        <v>0.5974515820786072</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6218969570811117</v>
+        <v>0.6224421092869643</v>
       </c>
     </row>
     <row r="23">
@@ -7974,19 +7974,19 @@
         <v>912498</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>856245</v>
+        <v>855363</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>967352</v>
+        <v>965118</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2602540010017325</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2442099729245282</v>
+        <v>0.2439585693043321</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2758990266747772</v>
+        <v>0.2752617283735281</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1494</v>
@@ -7995,19 +7995,19 @@
         <v>970713</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>923524</v>
+        <v>927394</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1017114</v>
+        <v>1020125</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2621975868705553</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2494513891945</v>
+        <v>0.250496661448449</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2747306372021659</v>
+        <v>0.2755440434487307</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2414</v>
@@ -8016,19 +8016,19 @@
         <v>1883211</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1806773</v>
+        <v>1813705</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1954624</v>
+        <v>1961954</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2612522225987096</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2506482193529053</v>
+        <v>0.2516098373444264</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2711591024223746</v>
+        <v>0.2721759256293569</v>
       </c>
     </row>
     <row r="24">
@@ -8045,19 +8045,19 @@
         <v>296267</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>263261</v>
+        <v>262694</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>331070</v>
+        <v>332238</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08449850941815955</v>
+        <v>0.08449850941815956</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07508487489515692</v>
+        <v>0.0749229792368158</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09442460103990467</v>
+        <v>0.09475771088465358</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>480</v>
@@ -8066,19 +8066,19 @@
         <v>318083</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>289698</v>
+        <v>288102</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>350649</v>
+        <v>349425</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08591672528243928</v>
+        <v>0.08591672528243929</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07824987820327783</v>
+        <v>0.07781878740244702</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09471304079970996</v>
+        <v>0.09438252233629121</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>773</v>
@@ -8087,19 +8087,19 @@
         <v>614350</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>571166</v>
+        <v>568820</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>664952</v>
+        <v>662622</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08522690209049209</v>
+        <v>0.08522690209049208</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07923609514649246</v>
+        <v>0.07891063503114708</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09224678417831561</v>
+        <v>0.09192352942014791</v>
       </c>
     </row>
     <row r="25">
@@ -8116,19 +8116,19 @@
         <v>98738</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>80471</v>
+        <v>78513</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120762</v>
+        <v>121287</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.028161181630105</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02295129897942014</v>
+        <v>0.02239271279642211</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03444250626855623</v>
+        <v>0.03459238955493162</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>188</v>
@@ -8137,19 +8137,19 @@
         <v>118291</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>102234</v>
+        <v>100922</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>137059</v>
+        <v>136528</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03195138726084644</v>
+        <v>0.03195138726084645</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02761432568651693</v>
+        <v>0.02725985323473705</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03702070526187178</v>
+        <v>0.03687720760953977</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>294</v>
@@ -8158,19 +8158,19 @@
         <v>217029</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>193987</v>
+        <v>192485</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>249445</v>
+        <v>247354</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03010782323636546</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02691128022570353</v>
+        <v>0.0267029298152149</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03460468365885967</v>
+        <v>0.0343146612191672</v>
       </c>
     </row>
     <row r="26">
@@ -8190,16 +8190,16 @@
         <v>30077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>56695</v>
+        <v>56547</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01188895958821522</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00857821673984952</v>
+        <v>0.008578414137364024</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01617007810070945</v>
+        <v>0.01612780759595844</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>78</v>
@@ -8208,19 +8208,19 @@
         <v>52752</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40884</v>
+        <v>42099</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67647</v>
+        <v>66645</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01424865779398604</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01104306172186936</v>
+        <v>0.01137138639176221</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01827187501818218</v>
+        <v>0.01800142973052905</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>123</v>
@@ -8229,19 +8229,19 @@
         <v>94437</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>78372</v>
+        <v>78867</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>117302</v>
+        <v>116239</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01310089560253459</v>
+        <v>0.0131008956025346</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01087226691173954</v>
+        <v>0.01094095826583542</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01627293824153754</v>
+        <v>0.01612547086752495</v>
       </c>
     </row>
     <row r="27">
